--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_res_fix.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.552997655338</v>
+        <v>385.380388819194</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.22299765533656</v>
+        <v>41.38038881919395</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.673221277784538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.673221277784538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>116.3400000000014</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.99</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -802,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -896,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -920,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.42811290419563</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>22.35722294236247</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.68305319446134</v>
+        <v>22.46981780704569</v>
       </c>
     </row>
     <row r="9">
@@ -952,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.44155308712504</v>
+        <v>29.04027613682382</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,34 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.00999999999964</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1134,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1145,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999964</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -1156,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999964</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1167,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999963</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1178,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -1189,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -1200,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -1211,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999979</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1222,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1233,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1244,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1255,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1266,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1277,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0100000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1299,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7850000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1310,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8050000000001</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1321,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3100000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1332,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9950000000001</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1343,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>99.98500000000037</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -1354,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>99.24500000000036</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -1365,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>99.15500000000037</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -1376,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>108.59</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -1387,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>106.675</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -1398,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>99.98500000000037</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33">
@@ -1409,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>99.24500000000036</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -1420,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>99.15500000000037</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
@@ -1431,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>106.675</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
@@ -1453,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.0100000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
@@ -1464,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>107.7850000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
@@ -1475,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>116.8050000000001</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -1486,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>101.3100000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -1497,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>109.9950000000001</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
@@ -1508,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>85.68999999999978</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -1519,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>96.85999999999979</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
@@ -1530,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>81.12999999999978</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -1541,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>89.87499999999979</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46">
@@ -1552,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>86.53999999999978</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1643,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1654,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.010000000000131</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1665,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.785000000000135</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1676,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.80500000000015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1687,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1.310000000000144</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1698,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>9.995000000000147</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1709,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1720,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -1753,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1811,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1822,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1833,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1844,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1855,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1866,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1877,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1888,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1899,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1910,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1921,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1932,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1943,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1954,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1965,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1976,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1987,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1998,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2009,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2078,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2163,7 +2113,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2174,9 +2124,31 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
